--- a/PCB/MonitorMainPCB/MainPCBParts.xlsx
+++ b/PCB/MonitorMainPCB/MainPCBParts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/study/ECGMonitor/PCB/MonitorMainPCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,9 +44,6 @@
     <t>R2,R5,R6,R7</t>
   </si>
   <si>
-    <t>R3,R4</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>贴片电容1nF-0603</t>
   </si>
   <si>
-    <t>贴片电容10uF-0603</t>
-  </si>
-  <si>
     <t>C13,C17,C18,C19,C20,C22,C23,C24,C43</t>
   </si>
   <si>
@@ -143,15 +137,9 @@
     <t>L1,L2,L3,L4</t>
   </si>
   <si>
-    <t>L1,L2,L3,L5</t>
-  </si>
-  <si>
     <t>贴片电阻0R-0603</t>
   </si>
   <si>
-    <t>R1,R10,R11,R12,R13,R14,R15,R16,R20,R21,R24,R25,R26,R27,R28,R30,R31,R32,R33,R34,R35</t>
-  </si>
-  <si>
     <t>贴片电阻1M欧-0603</t>
   </si>
   <si>
@@ -321,6 +309,18 @@
   </si>
   <si>
     <t>每片数量</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R1,R3,R10,R11,R12,R13,R14,R15,R16,R20,R21,R24,R25,R26,R27,R28,R30,R31,R32,R33,R34,R35</t>
+  </si>
+  <si>
+    <t>贴片电容10uF-1206</t>
   </si>
 </sst>
 </file>
@@ -640,19 +640,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="119" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -666,27 +666,27 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -711,16 +711,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -728,16 +728,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -745,16 +745,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -832,10 +832,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -902,16 +902,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C18">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -936,16 +936,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -953,16 +953,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1099,16 +1099,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
         <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1245,16 +1245,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1307,16 +1307,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C48">
         <v>3</v>

--- a/PCB/MonitorMainPCB/MainPCBParts.xlsx
+++ b/PCB/MonitorMainPCB/MainPCBParts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>元件</t>
   </si>
@@ -119,9 +119,6 @@
     <t>贴片LED-红色-0603</t>
   </si>
   <si>
-    <t>D4,D5,D6,D7,D8,D9</t>
-  </si>
-  <si>
     <t>D2,D3</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>J3</t>
   </si>
   <si>
-    <t>无需购买</t>
-  </si>
-  <si>
     <t>J4,J5</t>
   </si>
   <si>
@@ -299,15 +293,9 @@
     <t>心电-血氧监测系统元件列表</t>
   </si>
   <si>
-    <t>购买报价</t>
-  </si>
-  <si>
     <t>IC2</t>
   </si>
   <si>
-    <t>需求数量</t>
-  </si>
-  <si>
     <t>每片数量</t>
   </si>
   <si>
@@ -317,18 +305,42 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R1,R3,R10,R11,R12,R13,R14,R15,R16,R20,R21,R24,R25,R26,R27,R28,R30,R31,R32,R33,R34,R35</t>
-  </si>
-  <si>
     <t>贴片电容10uF-1206</t>
+  </si>
+  <si>
+    <r>
+      <t>R1,R3,R10,R11,R12,R13,R14,R15,R16,R20,R21,R24,R25,R26,R27,R28,R30,R31,R32,R33,R34,R35,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D4</t>
+    </r>
+  </si>
+  <si>
+    <t>D5,D6,D7,D8,D9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -638,27 +650,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="71.5" customWidth="1"/>
+    <col min="2" max="2" width="90.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -666,16 +678,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -685,14 +691,8 @@
       <c r="C3">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -702,14 +702,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -719,14 +713,8 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -736,14 +724,8 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -753,16 +735,10 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -770,11 +746,8 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -784,11 +757,8 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -798,11 +768,8 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -812,11 +779,8 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -826,11 +790,8 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -840,86 +801,65 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -927,50 +867,32 @@
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -978,128 +900,98 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
-      <c r="E24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="E28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
       </c>
       <c r="C29">
         <v>6</v>
       </c>
-      <c r="E29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1107,128 +999,98 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>63</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>65</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>66</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>73</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>67</v>
-      </c>
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -1236,16 +1098,10 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1253,16 +1109,10 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -1270,16 +1120,10 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -1287,81 +1131,60 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
         <v>80</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" t="s">
-        <v>82</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>86</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>87</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" t="s">
-        <v>89</v>
       </c>
       <c r="C48">
         <v>3</v>
-      </c>
-      <c r="E48">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
